--- a/Resources/Scrabblator.xlsx
+++ b/Resources/Scrabblator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Microsoft Visual Studio\workspace\Scrabblator\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63485917-E4AC-49BD-A440-2AD61AF2E045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9BABAE-AED9-4BF5-807F-9755FF002F36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34410" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="3690" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>t</t>
   </si>
@@ -33,9 +33,6 @@
     <t>a</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
     <t>r</t>
   </si>
   <si>
@@ -45,12 +42,6 @@
     <t>e</t>
   </si>
   <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>ń</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -63,9 +54,6 @@
     <t>c</t>
   </si>
   <si>
-    <t>z</t>
-  </si>
-  <si>
     <t>k</t>
   </si>
   <si>
@@ -75,9 +63,6 @@
     <t>i</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>o</t>
   </si>
   <si>
@@ -87,9 +72,6 @@
     <t>p</t>
   </si>
   <si>
-    <t>ż</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
@@ -99,7 +81,22 @@
     <t>m</t>
   </si>
   <si>
-    <t>ł</t>
+    <t>ś</t>
+  </si>
+  <si>
+    <t>ź</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>ó</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>ę</t>
   </si>
 </sst>
 </file>
@@ -516,31 +513,33 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -559,15 +558,11 @@
       <c r="F2" s="4"/>
       <c r="G2" s="2"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="4"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="M2" s="7"/>
       <c r="N2" s="2"/>
       <c r="O2" s="5"/>
     </row>
@@ -580,17 +575,11 @@
       <c r="F3" s="2"/>
       <c r="G3" s="5"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="I3" s="5"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="K3" s="4"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
@@ -600,34 +589,16 @@
       <c r="C4" s="2"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -639,18 +610,10 @@
       <c r="G5" s="6"/>
       <c r="H5" s="2"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="4"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
@@ -665,10 +628,10 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="7"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="4"/>
       <c r="O6" s="2"/>
@@ -681,17 +644,27 @@
       <c r="E7" s="6"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="J7" s="2" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -704,11 +677,11 @@
       <c r="G8" s="8"/>
       <c r="H8" s="2"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="5"/>
       <c r="O8" s="2"/>
@@ -722,17 +695,23 @@
       <c r="F9" s="8"/>
       <c r="G9" s="2"/>
       <c r="H9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="5"/>
     </row>
@@ -740,51 +719,41 @@
       <c r="A10" s="2"/>
       <c r="B10" s="5"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="N10" s="5"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="L11" s="2"/>
-      <c r="M11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="4"/>
     </row>
@@ -792,16 +761,16 @@
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="2"/>
       <c r="F12" s="6"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L12" s="7"/>
       <c r="M12" s="2"/>
       <c r="N12" s="4"/>
@@ -811,83 +780,77 @@
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="2"/>
       <c r="G13" s="6"/>
       <c r="H13" s="2"/>
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="7"/>
+      <c r="K13" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="4"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
       <c r="I14" s="2"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="7"/>
+      <c r="K14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="4"/>
+      <c r="H15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A16" s="5"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C16" s="7"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
